--- a/Fitnesse/FitnesseExamplesV2/workspace/fitnesse1/fitnesse/resources/ColumnFixtureTest7.xlsx
+++ b/Fitnesse/FitnesseExamplesV2/workspace/fitnesse1/fitnesse/resources/ColumnFixtureTest7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>CalculateDiscount</t>
   </si>
@@ -25,6 +25,87 @@
   </si>
   <si>
     <t>discount()</t>
+  </si>
+  <si>
+    <t>PrimeNumberRowFixture</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>fit.ActionFixture</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>BuyActions</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>proce</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>saraah</t>
+  </si>
+  <si>
+    <t>creates</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>enters</t>
+  </si>
+  <si>
+    <t>users in room</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>connect user</t>
+  </si>
+  <si>
+    <t>rick</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>quotient?</t>
   </si>
 </sst>
 </file>
@@ -357,89 +438,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>999</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1010</v>
       </c>
       <c r="B7" s="1">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1100</v>
       </c>
       <c r="B8" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1200</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" s="1">
+        <v>-9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
